--- a/hw5_zoa_rep.xlsx
+++ b/hw5_zoa_rep.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="5640"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Содержимое папки" sheetId="1" r:id="rId1"/>
+    <sheet name="Содержимое папки" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,22 +46,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,15 +411,824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Объект</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Путь</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Дата изменения</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Размер(байт)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FOLDER:</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 16:30:36</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>FOLDER:</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\dir011</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 16:30:36</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\dir011\file011_test.txt</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 10:43:33</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\dir011\file011_test1.txt</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 10:43:41</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>FOLDER:</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\dir012</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 16:30:36</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FOLDER:</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\dir012\dir012_zip.zip</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-17 14:45:26</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\dir012\file012.txt</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-17 14:45:52</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir01\file010.txt</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 10:46:48</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FOLDER:</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir02</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 16:30:36</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FOLDER:</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir02\dir021_zip.zip</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-17 14:45:26</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\dir02\file021.xlsx</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 10:44:23</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\file_main.txt</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 11:59:58</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FILE:</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\ПК\Documents\PYTHON\_Project\EDUC_HW_PY\hw5_zoa_folder\month.csv</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-20 12:04:44</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>